--- a/biology/Zoologie/Epiplatys_annulatus/Epiplatys_annulatus.xlsx
+++ b/biology/Zoologie/Epiplatys_annulatus/Epiplatys_annulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudepiplatys annulatus
-Epiplatys annulatus de son vrai nom Pseudepiplatys annulatus par les aquariophiles, ou Killi clown[1] est une espèce de petits poissons africains de la famille des Nothobranchiidae. Il est proche des killies qui sont très prisés par les aquariophiles. Les souches vendues auprès des aquariophiles sont issues de la Guinée, du Liberia et de la Sierra Leone. Parfois appelé librement Panchax à bandes[1] (traduction libre de "Banded panchax" nom vernaculaire anglais, peu utilisé en France)
+Epiplatys annulatus de son vrai nom Pseudepiplatys annulatus par les aquariophiles, ou Killi clown est une espèce de petits poissons africains de la famille des Nothobranchiidae. Il est proche des killies qui sont très prisés par les aquariophiles. Les souches vendues auprès des aquariophiles sont issues de la Guinée, du Liberia et de la Sierra Leone. Parfois appelé librement Panchax à bandes (traduction libre de "Banded panchax" nom vernaculaire anglais, peu utilisé en France)
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure de 3 à 3,5 cm, le mâle étant plus grand que la femelle. La robe est constituée de quatre larges bandes noires sur une couleur de chair claire. La nageoire caudale est prolongée d'un pointe particulièrement prononcée chez le mâle.
 </t>
@@ -543,7 +557,9 @@
           <t>Comportement et maintenance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson paisible, qui se tient près de la surface, apprécie les eaux à faible minéralisation dans une fourchette de températures optimales allant de 20 à 26 °C. Une petite territorialité "intra-spécifique" est notable entre les mâles, qui peut donner lieu à des parades d'intimidation.
 </t>
@@ -574,7 +590,9 @@
           <t>Comportement alimentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Omnivore, ce poisson se nourrit en surface. Il n'est pas difficile et s'adapte très bien aux nourritures sèches proposées dans le commerce. Il apprécie cependant les insectes de petite taille tombés dans l'eau.
 </t>
@@ -605,9 +623,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les œufs de cette espèce ovipare sont disséminés dans les plantations fines. Le mâle poursuit la femelle qui s'arrête près d'une plante sur laquelle elle pond un œuf[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs de cette espèce ovipare sont disséminés dans les plantations fines. Le mâle poursuit la femelle qui s'arrête près d'une plante sur laquelle elle pond un œuf.
 </t>
         </is>
       </c>
